--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>34.66116892835214</v>
+        <v>34.65554307931001</v>
       </c>
       <c r="G2" t="n">
-        <v>33.22347065931413</v>
+        <v>33.24135261438737</v>
       </c>
       <c r="H2" t="n">
-        <v>36.07827168497577</v>
+        <v>36.04062058318276</v>
       </c>
       <c r="I2" t="n">
-        <v>3.467169218870309</v>
+        <v>3.469365924523141</v>
       </c>
       <c r="J2" t="n">
-        <v>3.198343312462174</v>
+        <v>3.208344111345506</v>
       </c>
       <c r="K2" t="n">
-        <v>3.738247202652921</v>
+        <v>3.733288334860029</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2545024342637162</v>
+        <v>0.254592384888277</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2352938337237785</v>
+        <v>0.235945042664084</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2737328552624803</v>
+        <v>0.2732372777061016</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005125167607502134</v>
+        <v>0.005082095168829363</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003395099421536429</v>
+        <v>0.003402116081251368</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007107189589714086</v>
+        <v>0.007055646502701864</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004693087668373916</v>
+        <v>0.004653804487702032</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00309905256784078</v>
+        <v>0.003104472924203355</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00652851291210422</v>
+        <v>0.006481977647927694</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005086618730284438</v>
+        <v>0.005043944123421878</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003365072363336402</v>
+        <v>0.003371958872956345</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007061790042312521</v>
+        <v>0.007010814451036995</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>34.66629409595964</v>
+        <v>34.66062517447885</v>
       </c>
       <c r="G4" t="n">
-        <v>33.22686575873567</v>
+        <v>33.24475473046861</v>
       </c>
       <c r="H4" t="n">
-        <v>36.08537887456549</v>
+        <v>36.04767622968546</v>
       </c>
       <c r="I4" t="n">
-        <v>3.471862306538683</v>
+        <v>3.474019729010843</v>
       </c>
       <c r="J4" t="n">
-        <v>3.201442365030015</v>
+        <v>3.21144858426971</v>
       </c>
       <c r="K4" t="n">
-        <v>3.744775715565025</v>
+        <v>3.739770312507956</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2595890529940007</v>
+        <v>0.2596363290116989</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2386589060871148</v>
+        <v>0.2393170015370403</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2807946453047929</v>
+        <v>0.2802480921571386</v>
       </c>
     </row>
   </sheetData>
